--- a/Registro de Gastos.xlsx
+++ b/Registro de Gastos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERSONAL\OneDrive\Documentos\Adrian\Guias\Nuevo Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5EB732-A922-4B6F-8480-13CB3C227E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BCB267-B71A-4DE2-B44C-76646989BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Domingo</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Zanahoria $5,500, Dulces $5,600, Pan $4,000, Almuerzo $15,000, Huevos $11,000</t>
+  </si>
+  <si>
+    <t>Sentimiento del momento</t>
+  </si>
+  <si>
+    <t>Estaba aburrido y con ansiedad</t>
+  </si>
+  <si>
+    <t>Tenia hambre y era necesario</t>
+  </si>
+  <si>
+    <t>Calificación con respecto al Gasto</t>
   </si>
 </sst>
 </file>
@@ -137,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;XDR&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;XDR&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +179,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,12 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -500,10 +525,12 @@
     <col min="5" max="5" width="25.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -525,8 +552,14 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -548,8 +581,14 @@
       <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -571,8 +610,14 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -594,8 +639,14 @@
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -617,8 +668,14 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -640,8 +697,14 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -663,8 +726,14 @@
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -686,8 +755,14 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
     </row>
   </sheetData>
